--- a/DOCUMENTATION/Plan de test qualité en gestion de projet.xlsx
+++ b/DOCUMENTATION/Plan de test qualité en gestion de projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bts_sio\Web_Formation\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA732AC6-1C7E-4D58-80B6-8A69CB88AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC5EE3-D22E-41D1-9D6E-C75CDF84B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44040" yWindow="-12255" windowWidth="23265" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,6 @@
     <t>Un nouveau cours doit appaître</t>
   </si>
   <si>
-    <t xml:space="preserve">La modification ne fonctionne pas car la selection du cours
- est impossible </t>
-  </si>
-  <si>
     <t>Tous les éléments du cours peuvent être modifié (nom, 
 date, professeur, classe, matière)</t>
   </si>
@@ -271,6 +267,9 @@
   </si>
   <si>
     <t>Les élèves et profs voient l'assiduité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La modification ne fonctionne pas car la selection du cours est impossible </t>
   </si>
 </sst>
 </file>
@@ -499,10 +498,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,10 +522,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -814,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +825,7 @@
     <col min="4" max="4" width="48.5546875" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="7" width="38.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1093,7 +1092,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>47</v>
@@ -1113,10 +1112,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>47</v>
@@ -1136,10 +1135,10 @@
         <v>45</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>10</v>
@@ -1159,10 +1158,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>10</v>
@@ -1179,13 +1178,13 @@
         <v>45756</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>10</v>
@@ -1202,13 +1201,13 @@
         <v>45756</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>10</v>
@@ -1225,13 +1224,13 @@
         <v>45756</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>10</v>
@@ -1240,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1248,13 +1247,13 @@
         <v>45756</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>10</v>
@@ -1271,13 +1270,13 @@
         <v>45756</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>10</v>
@@ -1294,13 +1293,13 @@
         <v>45756</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>10</v>
@@ -1317,13 +1316,13 @@
         <v>45756</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>10</v>

--- a/DOCUMENTATION/Plan de test qualité en gestion de projet.xlsx
+++ b/DOCUMENTATION/Plan de test qualité en gestion de projet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bts_sio\Web_Formation\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC5EE3-D22E-41D1-9D6E-C75CDF84B59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475C791-47F3-43CE-AFBB-53500A81BCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="-12255" windowWidth="23265" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53205" yWindow="-12255" windowWidth="14100" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +822,7 @@
     <col min="1" max="1" width="11.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="51" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="52.33203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="14" style="10" customWidth="1"/>
     <col min="7" max="7" width="39" style="10" customWidth="1"/>
@@ -1035,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>45755</v>
       </c>
